--- a/Project.WebApplication/TemplateFile/考勤模版.xlsx
+++ b/Project.WebApplication/TemplateFile/考勤模版.xlsx
@@ -4,41 +4,176 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10305" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>所属机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+  <si>
+    <t>员工编号</t>
+  </si>
+  <si>
+    <t>妇产科</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>缺</t>
+  </si>
+  <si>
+    <t>星期</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>海盐县元通街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          </t>
+  </si>
+  <si>
+    <t>2016年03月</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +181,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -57,7 +197,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,21 +212,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
+      <protection/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,59 +625,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:34" ht="13.5">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" ht="13.5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="5"/>
+    </row>
+    <row r="3" spans="3:26" ht="13.5">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F4" t="s">
         <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="19.5" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="13.5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:AG2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup horizontalDpi="200" verticalDpi="200" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup horizontalDpi="200" verticalDpi="200" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup horizontalDpi="200" verticalDpi="200" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>